--- a/data/pca/factorExposure/factorExposure_2009-03-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-03-17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01738854229056585</v>
+        <v>0.01698075159615239</v>
       </c>
       <c r="C2">
-        <v>0.002316129650108036</v>
+        <v>-0.001667206713741125</v>
       </c>
       <c r="D2">
-        <v>0.008420291097692734</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.00912162729819755</v>
+      </c>
+      <c r="E2">
+        <v>-0.01892587214980524</v>
+      </c>
+      <c r="F2">
+        <v>0.007416115204938931</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.08341971865936318</v>
+        <v>0.08688492221158296</v>
       </c>
       <c r="C4">
-        <v>0.02003282680467524</v>
+        <v>-0.01600681897691923</v>
       </c>
       <c r="D4">
-        <v>0.08457736084220024</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08774338339017626</v>
+      </c>
+      <c r="E4">
+        <v>0.04934533122155593</v>
+      </c>
+      <c r="F4">
+        <v>-0.01526986496441526</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.000896105202732702</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-0.0002673301558871878</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0.001036652834551334</v>
+      </c>
+      <c r="E5">
+        <v>0.0008338589707284988</v>
+      </c>
+      <c r="F5">
+        <v>0.00248285466777412</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1620296874532861</v>
+        <v>0.1676195199833335</v>
       </c>
       <c r="C6">
-        <v>0.03889314438044535</v>
+        <v>-0.03625779285428144</v>
       </c>
       <c r="D6">
-        <v>-0.02078474880896769</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01170306245087669</v>
+      </c>
+      <c r="E6">
+        <v>0.06033871842923552</v>
+      </c>
+      <c r="F6">
+        <v>-0.01303949691736356</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.05528943518431763</v>
+        <v>0.06004347600436776</v>
       </c>
       <c r="C7">
-        <v>0.00187105743623855</v>
+        <v>0.0009625485937598585</v>
       </c>
       <c r="D7">
-        <v>0.05215510607044383</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05642097655932132</v>
+      </c>
+      <c r="E7">
+        <v>0.02863300137041437</v>
+      </c>
+      <c r="F7">
+        <v>-0.05473990329129005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.05805561203362822</v>
+        <v>0.0547992607141252</v>
       </c>
       <c r="C8">
-        <v>-0.009323950897859739</v>
+        <v>0.01099536841252263</v>
       </c>
       <c r="D8">
-        <v>0.03482037296776815</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03632374836399684</v>
+      </c>
+      <c r="E8">
+        <v>-0.0226557046114089</v>
+      </c>
+      <c r="F8">
+        <v>0.02285268426590608</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.06397140227002059</v>
+        <v>0.06745084233504935</v>
       </c>
       <c r="C9">
-        <v>0.01541927979493089</v>
+        <v>-0.01149067119084821</v>
       </c>
       <c r="D9">
-        <v>0.08820543268955448</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.09095674464443275</v>
+      </c>
+      <c r="E9">
+        <v>0.06478453635678431</v>
+      </c>
+      <c r="F9">
+        <v>-0.02247130970789827</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.09769932276305028</v>
+        <v>0.09360112283589084</v>
       </c>
       <c r="C10">
-        <v>0.02504362739809991</v>
+        <v>-0.02584904083182983</v>
       </c>
       <c r="D10">
-        <v>-0.16176905040283</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1522816236846158</v>
+      </c>
+      <c r="E10">
+        <v>-0.09037829818688974</v>
+      </c>
+      <c r="F10">
+        <v>0.01351653854062522</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.0854896442082939</v>
+        <v>0.08342622938447121</v>
       </c>
       <c r="C11">
-        <v>0.01757693886298448</v>
+        <v>-0.01265225906111255</v>
       </c>
       <c r="D11">
-        <v>0.1363136256747564</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.1357660317602615</v>
+      </c>
+      <c r="E11">
+        <v>0.03450920746706741</v>
+      </c>
+      <c r="F11">
+        <v>0.008917495930183567</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.08988531000136683</v>
+        <v>0.08583975680957336</v>
       </c>
       <c r="C12">
-        <v>0.01527842851039377</v>
+        <v>-0.00988714771011083</v>
       </c>
       <c r="D12">
-        <v>0.1433521229882166</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.1500925414631312</v>
+      </c>
+      <c r="E12">
+        <v>0.0318429802667373</v>
+      </c>
+      <c r="F12">
+        <v>-0.003220617439025678</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04162570365242765</v>
+        <v>0.04239803671692685</v>
       </c>
       <c r="C13">
-        <v>0.007566216657403816</v>
+        <v>-0.003790668936160059</v>
       </c>
       <c r="D13">
-        <v>0.0518719510744832</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05929982871578642</v>
+      </c>
+      <c r="E13">
+        <v>0.002619559578982728</v>
+      </c>
+      <c r="F13">
+        <v>-0.01596508155936426</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.0199992868612185</v>
+        <v>0.02251277073235371</v>
       </c>
       <c r="C14">
-        <v>0.01520419663744781</v>
+        <v>-0.01414937519790349</v>
       </c>
       <c r="D14">
-        <v>0.04113180406327241</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.0421316999318724</v>
+      </c>
+      <c r="E14">
+        <v>0.02746659211624643</v>
+      </c>
+      <c r="F14">
+        <v>-0.001647770752539988</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.0322323416265476</v>
+        <v>0.03344864951071577</v>
       </c>
       <c r="C15">
-        <v>0.008231422748818376</v>
+        <v>-0.006655456202772991</v>
       </c>
       <c r="D15">
-        <v>0.05515500433635877</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.05367865860655698</v>
+      </c>
+      <c r="E15">
+        <v>0.02474274836811843</v>
+      </c>
+      <c r="F15">
+        <v>-0.01366327837771737</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.06622926740191841</v>
+        <v>0.06617227177625036</v>
       </c>
       <c r="C16">
-        <v>0.006012366376581363</v>
+        <v>-0.001323067886829571</v>
       </c>
       <c r="D16">
-        <v>0.1383342134368088</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.1441211112017565</v>
+      </c>
+      <c r="E16">
+        <v>0.04379907594587634</v>
+      </c>
+      <c r="F16">
+        <v>0.01468243189022834</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.002764815845836594</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.001131253257848066</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.002751030365161795</v>
+      </c>
+      <c r="E17">
+        <v>-5.335727753746491e-05</v>
+      </c>
+      <c r="F17">
+        <v>0.007178195282392594</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.03092968804579943</v>
+        <v>0.04753312709363004</v>
       </c>
       <c r="C18">
-        <v>0.0001236989673910319</v>
+        <v>-0.0005660340040099803</v>
       </c>
       <c r="D18">
-        <v>0.02950960312810448</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.02738061119309755</v>
+      </c>
+      <c r="E18">
+        <v>-0.01910124129804121</v>
+      </c>
+      <c r="F18">
+        <v>-0.004079936218492094</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06139138187006379</v>
+        <v>0.06152069449799411</v>
       </c>
       <c r="C20">
-        <v>0.005256672519704663</v>
+        <v>-0.002609632683265748</v>
       </c>
       <c r="D20">
-        <v>0.09554546110849456</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.09529282135816186</v>
+      </c>
+      <c r="E20">
+        <v>0.06112550084615708</v>
+      </c>
+      <c r="F20">
+        <v>0.007265279693559084</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.04160829872646538</v>
+        <v>0.04340935558099102</v>
       </c>
       <c r="C21">
-        <v>0.01078577608392622</v>
+        <v>-0.008252605483039899</v>
       </c>
       <c r="D21">
-        <v>0.04692776817647731</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.04716117831784535</v>
+      </c>
+      <c r="E21">
+        <v>-0.01998098545574195</v>
+      </c>
+      <c r="F21">
+        <v>-0.007024869059821214</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04610907599696176</v>
+        <v>0.04471134979205201</v>
       </c>
       <c r="C22">
-        <v>0.005113577955735583</v>
+        <v>-0.002817514460765514</v>
       </c>
       <c r="D22">
-        <v>0.008419405193249447</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.01718612824470972</v>
+      </c>
+      <c r="E22">
+        <v>-0.03988796483391299</v>
+      </c>
+      <c r="F22">
+        <v>0.1256494211742578</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04611809303165319</v>
+        <v>0.04471901948021921</v>
       </c>
       <c r="C23">
-        <v>0.005116128922964788</v>
+        <v>-0.002819831647338867</v>
       </c>
       <c r="D23">
-        <v>0.008411584712764507</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.01718005557017529</v>
+      </c>
+      <c r="E23">
+        <v>-0.03990965430897601</v>
+      </c>
+      <c r="F23">
+        <v>0.1256894506551451</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.07331066916506805</v>
+        <v>0.07210676011478673</v>
       </c>
       <c r="C24">
-        <v>0.006792773201273924</v>
+        <v>-0.002408969304563849</v>
       </c>
       <c r="D24">
-        <v>0.13636455893744</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.1348085381236419</v>
+      </c>
+      <c r="E24">
+        <v>0.03776291243724399</v>
+      </c>
+      <c r="F24">
+        <v>-0.003435140227697912</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.07956376239046642</v>
+        <v>0.07741825010605757</v>
       </c>
       <c r="C25">
-        <v>0.009741060787073444</v>
+        <v>-0.005442140216153474</v>
       </c>
       <c r="D25">
-        <v>0.1273324366068286</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.1256259387650567</v>
+      </c>
+      <c r="E25">
+        <v>0.02241326659237081</v>
+      </c>
+      <c r="F25">
+        <v>-0.01813046528646013</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05728148705259472</v>
+        <v>0.06206595230041412</v>
       </c>
       <c r="C26">
-        <v>0.01930343508751995</v>
+        <v>-0.01656324038564644</v>
       </c>
       <c r="D26">
-        <v>0.06570894421269093</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.06687302460288549</v>
+      </c>
+      <c r="E26">
+        <v>0.001946501847249082</v>
+      </c>
+      <c r="F26">
+        <v>0.01039470061370596</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1564414593311163</v>
+        <v>0.1600891575222986</v>
       </c>
       <c r="C28">
-        <v>0.03043547298599475</v>
+        <v>-0.03269521786145798</v>
       </c>
       <c r="D28">
-        <v>-0.2478917832261363</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2453136152779911</v>
+      </c>
+      <c r="E28">
+        <v>-0.02492663668505486</v>
+      </c>
+      <c r="F28">
+        <v>-0.04259605141039171</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02623215476113988</v>
+        <v>0.02804786580821902</v>
       </c>
       <c r="C29">
-        <v>0.01006057019831808</v>
+        <v>-0.009485173792988955</v>
       </c>
       <c r="D29">
-        <v>0.0393482663102638</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.03904415774591932</v>
+      </c>
+      <c r="E29">
+        <v>-0.005833606226631614</v>
+      </c>
+      <c r="F29">
+        <v>0.02270065725151136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.04649683097045982</v>
+        <v>0.04682718542859405</v>
       </c>
       <c r="C30">
-        <v>0.004825228255054589</v>
+        <v>-0.001596673423515209</v>
       </c>
       <c r="D30">
-        <v>0.07756914464784617</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08130652102454573</v>
+      </c>
+      <c r="E30">
+        <v>0.08336439409672632</v>
+      </c>
+      <c r="F30">
+        <v>-0.06715376695885608</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05224668610145219</v>
+        <v>0.05267969554100822</v>
       </c>
       <c r="C31">
-        <v>0.01994193521197906</v>
+        <v>-0.01760368682977009</v>
       </c>
       <c r="D31">
-        <v>0.03211105049928233</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.03530265535636955</v>
+      </c>
+      <c r="E31">
+        <v>0.01045530945734002</v>
+      </c>
+      <c r="F31">
+        <v>0.03086529784710433</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.0436417355066206</v>
+        <v>0.0492884247776127</v>
       </c>
       <c r="C32">
-        <v>0.00143451255248536</v>
+        <v>0.001058378210581178</v>
       </c>
       <c r="D32">
-        <v>0.03637162611359973</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.03879064867807729</v>
+      </c>
+      <c r="E32">
+        <v>0.01180382549451655</v>
+      </c>
+      <c r="F32">
+        <v>0.02211633850066266</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.08377755407885064</v>
+        <v>0.08619413170842358</v>
       </c>
       <c r="C33">
-        <v>0.01368486945038341</v>
+        <v>-0.008658083312380485</v>
       </c>
       <c r="D33">
-        <v>0.1052163179881866</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1130232303423361</v>
+      </c>
+      <c r="E33">
+        <v>0.0444228493460116</v>
+      </c>
+      <c r="F33">
+        <v>0.01320615849954139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.05984745111988693</v>
+        <v>0.06099764569334661</v>
       </c>
       <c r="C34">
-        <v>0.01470996508215314</v>
+        <v>-0.01023760486155001</v>
       </c>
       <c r="D34">
-        <v>0.1138406325184758</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.1209189440610625</v>
+      </c>
+      <c r="E34">
+        <v>0.03545199135919044</v>
+      </c>
+      <c r="F34">
+        <v>-0.02421259752253304</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02686214653808124</v>
+        <v>0.02807047895198442</v>
       </c>
       <c r="C35">
-        <v>0.005222804576077415</v>
+        <v>-0.00455358350477009</v>
       </c>
       <c r="D35">
-        <v>0.01189541468774483</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01498280413779506</v>
+      </c>
+      <c r="E35">
+        <v>0.01033616158728114</v>
+      </c>
+      <c r="F35">
+        <v>0.01861424633693841</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02318344935372408</v>
+        <v>0.02784271936128288</v>
       </c>
       <c r="C36">
-        <v>0.009152295987233277</v>
+        <v>-0.008117516148483396</v>
       </c>
       <c r="D36">
-        <v>0.04578854379486006</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.04835298597803609</v>
+      </c>
+      <c r="E36">
+        <v>0.03659179001297036</v>
+      </c>
+      <c r="F36">
+        <v>0.01196625833204412</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.003423233158540503</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0008413683090460448</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.003688622742931886</v>
+      </c>
+      <c r="E37">
+        <v>-0.001704508319465553</v>
+      </c>
+      <c r="F37">
+        <v>6.847014730683849e-05</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.0955959991429061</v>
+        <v>0.08825940546662872</v>
       </c>
       <c r="C39">
-        <v>0.02090171090722514</v>
+        <v>-0.0152790635473897</v>
       </c>
       <c r="D39">
-        <v>0.170013096816096</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1630110730308915</v>
+      </c>
+      <c r="E39">
+        <v>0.02594676522887455</v>
+      </c>
+      <c r="F39">
+        <v>0.01645113141334388</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.04388455502279133</v>
+        <v>0.0493042086179594</v>
       </c>
       <c r="C40">
-        <v>0.01233595468484335</v>
+        <v>-0.01076139543917217</v>
       </c>
       <c r="D40">
-        <v>0.04390187168913121</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.04742243128870668</v>
+      </c>
+      <c r="E40">
+        <v>-0.02160411770222304</v>
+      </c>
+      <c r="F40">
+        <v>-0.0009758356898709424</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02707174483772188</v>
+        <v>0.0290800561863561</v>
       </c>
       <c r="C41">
-        <v>0.008670780292494521</v>
+        <v>-0.008080613381526939</v>
       </c>
       <c r="D41">
-        <v>0.02078335949081419</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.02117757743469516</v>
+      </c>
+      <c r="E41">
+        <v>-0.008153337753797561</v>
+      </c>
+      <c r="F41">
+        <v>0.005182238345009429</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,122 +1531,176 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04238675818116185</v>
+        <v>0.04086047860092606</v>
       </c>
       <c r="C43">
-        <v>0.009873764190975506</v>
+        <v>-0.008751351401521584</v>
       </c>
       <c r="D43">
-        <v>0.03315890009346838</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.0313726240230621</v>
+      </c>
+      <c r="E43">
+        <v>-0.007222136661616451</v>
+      </c>
+      <c r="F43">
+        <v>0.02404848275697094</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.0568348366106988</v>
+        <v>0.06581126298181643</v>
       </c>
       <c r="C44">
-        <v>0.02113005517752317</v>
+        <v>-0.01847020537316234</v>
       </c>
       <c r="D44">
-        <v>0.07909078762764168</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.08802209850288081</v>
+      </c>
+      <c r="E44">
+        <v>0.2227786129088011</v>
+      </c>
+      <c r="F44">
+        <v>-0.07320095706425127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>0.0002265429171736286</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>-3.817220779104101e-05</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>-2.611802689739011e-05</v>
+      </c>
+      <c r="E45">
+        <v>-0.0004502836108276457</v>
+      </c>
+      <c r="F45">
+        <v>-0.0002991258948929921</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02488826922404998</v>
+        <v>0.02635258270535934</v>
       </c>
       <c r="C46">
-        <v>0.005349084243605654</v>
+        <v>-0.004439049999218792</v>
       </c>
       <c r="D46">
-        <v>0.02588802044330355</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.02647414208004868</v>
+      </c>
+      <c r="E46">
+        <v>-0.003027918923263691</v>
+      </c>
+      <c r="F46">
+        <v>0.03229113193295674</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05426876671731028</v>
+        <v>0.05322297687728873</v>
       </c>
       <c r="C47">
-        <v>0.007765036241542424</v>
+        <v>-0.005877061999886424</v>
       </c>
       <c r="D47">
-        <v>0.02314075624674167</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.02372957391581757</v>
+      </c>
+      <c r="E47">
+        <v>-0.01123270661356866</v>
+      </c>
+      <c r="F47">
+        <v>0.05388485697649428</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04845886059018045</v>
+        <v>0.05262284425957019</v>
       </c>
       <c r="C48">
-        <v>0.006626489442977676</v>
+        <v>-0.004278134725754356</v>
       </c>
       <c r="D48">
-        <v>0.06540262640698441</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.06363752115563227</v>
+      </c>
+      <c r="E48">
+        <v>0.003931563211398822</v>
+      </c>
+      <c r="F48">
+        <v>-0.02046823135016728</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.1948341476016383</v>
+        <v>0.1975254786560033</v>
       </c>
       <c r="C49">
-        <v>0.03015178586776445</v>
+        <v>-0.0258099104718033</v>
       </c>
       <c r="D49">
-        <v>-0.006481937494692833</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.003194714069249625</v>
+      </c>
+      <c r="E49">
+        <v>0.04569498374125217</v>
+      </c>
+      <c r="F49">
+        <v>-0.04160642013472442</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.0501354443479631</v>
+        <v>0.0528503420808317</v>
       </c>
       <c r="C50">
-        <v>0.01530210446152674</v>
+        <v>-0.01355259274494273</v>
       </c>
       <c r="D50">
-        <v>0.03151308042996997</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.03336039647985985</v>
+      </c>
+      <c r="E50">
+        <v>0.02157891035799665</v>
+      </c>
+      <c r="F50">
+        <v>0.01806408004054487</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1470174721932116</v>
+        <v>0.1413337058978109</v>
       </c>
       <c r="C52">
-        <v>0.02571623808444206</v>
+        <v>-0.02169081557842289</v>
       </c>
       <c r="D52">
-        <v>0.04096292484230029</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.04200030109552926</v>
+      </c>
+      <c r="E52">
+        <v>0.05798080914827149</v>
+      </c>
+      <c r="F52">
+        <v>0.01643774911322913</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.176967384920147</v>
+        <v>0.1687681423597145</v>
       </c>
       <c r="C53">
-        <v>0.03096014016223714</v>
+        <v>-0.02727729561052608</v>
       </c>
       <c r="D53">
-        <v>0.01236043370683174</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.01302433930714905</v>
+      </c>
+      <c r="E53">
+        <v>0.1152088598747444</v>
+      </c>
+      <c r="F53">
+        <v>0.001933422072368911</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.013841011435233</v>
+        <v>0.0168191239186141</v>
       </c>
       <c r="C54">
-        <v>0.01170533824144495</v>
+        <v>-0.01109305414611256</v>
       </c>
       <c r="D54">
-        <v>0.03370118763919066</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03276312523065025</v>
+      </c>
+      <c r="E54">
+        <v>0.005170255964385784</v>
+      </c>
+      <c r="F54">
+        <v>0.01641672855835138</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1204070182396493</v>
+        <v>0.1176616149137658</v>
       </c>
       <c r="C55">
-        <v>0.02626635765311214</v>
+        <v>-0.02338709935786506</v>
       </c>
       <c r="D55">
-        <v>0.01156382057230097</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.01802067317515547</v>
+      </c>
+      <c r="E55">
+        <v>0.06834587129999398</v>
+      </c>
+      <c r="F55">
+        <v>0.03817040687774344</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1809639506598001</v>
+        <v>0.175028757597876</v>
       </c>
       <c r="C56">
-        <v>0.02857518262195788</v>
+        <v>-0.025289006127384</v>
       </c>
       <c r="D56">
-        <v>0.001105004407461397</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.002566778800799989</v>
+      </c>
+      <c r="E56">
+        <v>0.07531315060506984</v>
+      </c>
+      <c r="F56">
+        <v>0.02759812961582922</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04538588622710521</v>
+        <v>0.04571677874191309</v>
       </c>
       <c r="C58">
-        <v>0.004730575719906536</v>
+        <v>-0.0008483643906059108</v>
       </c>
       <c r="D58">
-        <v>0.09289909406945986</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.09749325320204912</v>
+      </c>
+      <c r="E58">
+        <v>-0.01763734311655569</v>
+      </c>
+      <c r="F58">
+        <v>0.037903429192023</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1746937281511499</v>
+        <v>0.1786287483607761</v>
       </c>
       <c r="C59">
-        <v>0.02971695931591012</v>
+        <v>-0.031486675671986</v>
       </c>
       <c r="D59">
-        <v>-0.2081130568737062</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.2069227716754731</v>
+      </c>
+      <c r="E59">
+        <v>-0.0770859742411055</v>
+      </c>
+      <c r="F59">
+        <v>0.01109453493465975</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2216153332625444</v>
+        <v>0.2169817634373541</v>
       </c>
       <c r="C60">
-        <v>0.009323577796618909</v>
+        <v>-0.004458920628153256</v>
       </c>
       <c r="D60">
-        <v>0.02140485072049697</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.02184886830837089</v>
+      </c>
+      <c r="E60">
+        <v>-0.005187973481651173</v>
+      </c>
+      <c r="F60">
+        <v>-0.005008058103417138</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.07241839725423393</v>
+        <v>0.06864183793723573</v>
       </c>
       <c r="C61">
-        <v>0.01591534626712491</v>
+        <v>-0.01119499770402499</v>
       </c>
       <c r="D61">
-        <v>0.1240043687238155</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.1233714859778796</v>
+      </c>
+      <c r="E61">
+        <v>0.01022248441390239</v>
+      </c>
+      <c r="F61">
+        <v>0.01962049891697238</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1701965275732255</v>
+        <v>0.1662592214254256</v>
       </c>
       <c r="C62">
-        <v>0.03066739723566473</v>
+        <v>-0.02717287837712531</v>
       </c>
       <c r="D62">
-        <v>0.00882091787087892</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.01166867634118043</v>
+      </c>
+      <c r="E62">
+        <v>0.06942404230174681</v>
+      </c>
+      <c r="F62">
+        <v>0.03670873745092509</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04098561707742983</v>
+        <v>0.04678119455955491</v>
       </c>
       <c r="C63">
-        <v>0.005824915729000527</v>
+        <v>-0.00363891133731612</v>
       </c>
       <c r="D63">
-        <v>0.07099295395755906</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.07556573680032386</v>
+      </c>
+      <c r="E63">
+        <v>0.01226198914054876</v>
+      </c>
+      <c r="F63">
+        <v>0.02242845886465326</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1145210437433656</v>
+        <v>0.1115828468117182</v>
       </c>
       <c r="C64">
-        <v>0.02057014693256237</v>
+        <v>-0.01643869927675576</v>
       </c>
       <c r="D64">
-        <v>0.05587083519211453</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.05759975047932109</v>
+      </c>
+      <c r="E64">
+        <v>0.03443102962046248</v>
+      </c>
+      <c r="F64">
+        <v>-0.001255824346400921</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1508344255400862</v>
+        <v>0.1565798208926133</v>
       </c>
       <c r="C65">
-        <v>0.04455762641453969</v>
+        <v>-0.04261578919775844</v>
       </c>
       <c r="D65">
-        <v>-0.05120489928007785</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.03937511161997848</v>
+      </c>
+      <c r="E65">
+        <v>0.06789707658148712</v>
+      </c>
+      <c r="F65">
+        <v>0.001125919656515687</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1160840447302263</v>
+        <v>0.1068287240960367</v>
       </c>
       <c r="C66">
-        <v>0.01944698710469071</v>
+        <v>-0.01322774637838751</v>
       </c>
       <c r="D66">
-        <v>0.1530344387984455</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1503007131419902</v>
+      </c>
+      <c r="E66">
+        <v>0.02874180977417618</v>
+      </c>
+      <c r="F66">
+        <v>0.0150940716067486</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.05963437528138586</v>
+        <v>0.05195967761562575</v>
       </c>
       <c r="C67">
-        <v>0.006578380925355163</v>
+        <v>-0.004206629770512793</v>
       </c>
       <c r="D67">
-        <v>0.05925652213445412</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.06105339588456792</v>
+      </c>
+      <c r="E67">
+        <v>-0.04858345753507613</v>
+      </c>
+      <c r="F67">
+        <v>0.07334548595271784</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1253965109222613</v>
+        <v>0.1305961467984775</v>
       </c>
       <c r="C68">
-        <v>0.03793768080795017</v>
+        <v>-0.04172035114998047</v>
       </c>
       <c r="D68">
-        <v>-0.2573331363470935</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2549610040772709</v>
+      </c>
+      <c r="E68">
+        <v>-0.03779014884595024</v>
+      </c>
+      <c r="F68">
+        <v>-0.07279620576920458</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03956765224261373</v>
+        <v>0.0389869103392259</v>
       </c>
       <c r="C69">
-        <v>0.003758344429947208</v>
+        <v>-0.002697672336686629</v>
       </c>
       <c r="D69">
-        <v>0.01210947292883368</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01242629572751128</v>
+      </c>
+      <c r="E69">
+        <v>0.01542162880590572</v>
+      </c>
+      <c r="F69">
+        <v>0.05109501960591872</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.072211917736607</v>
+        <v>0.07302847194781392</v>
       </c>
       <c r="C70">
-        <v>-0.02117896624780918</v>
+        <v>0.02305154699166484</v>
       </c>
       <c r="D70">
-        <v>0.0524651080343479</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.04830647630025878</v>
+      </c>
+      <c r="E70">
+        <v>-0.3295038293564758</v>
+      </c>
+      <c r="F70">
+        <v>0.1730203264877763</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1462149731053614</v>
+        <v>0.1520496719037296</v>
       </c>
       <c r="C71">
-        <v>0.04415774076002749</v>
+        <v>-0.04746477431630007</v>
       </c>
       <c r="D71">
-        <v>-0.2697348392556142</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2631497238503397</v>
+      </c>
+      <c r="E71">
+        <v>-0.04390176525128663</v>
+      </c>
+      <c r="F71">
+        <v>-0.08318362210940819</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1396811100266236</v>
+        <v>0.1460427021921144</v>
       </c>
       <c r="C72">
-        <v>0.03486222061005941</v>
+        <v>-0.03321605957371195</v>
       </c>
       <c r="D72">
-        <v>0.01587071616826834</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.01104080031819125</v>
+      </c>
+      <c r="E72">
+        <v>0.06413787300762834</v>
+      </c>
+      <c r="F72">
+        <v>0.02777534013739544</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.1924052462440186</v>
+        <v>0.1983499550565933</v>
       </c>
       <c r="C73">
-        <v>0.02267259281747284</v>
+        <v>-0.0171808479944405</v>
       </c>
       <c r="D73">
-        <v>0.01661496246211172</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.02188525419292933</v>
+      </c>
+      <c r="E73">
+        <v>0.06402602208495971</v>
+      </c>
+      <c r="F73">
+        <v>0.050215964539247</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.08866553571283749</v>
+        <v>0.08881768125848558</v>
       </c>
       <c r="C74">
-        <v>0.01743776694790515</v>
+        <v>-0.01524593156323779</v>
       </c>
       <c r="D74">
-        <v>0.02030878213710171</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.02394946056409548</v>
+      </c>
+      <c r="E74">
+        <v>0.07987411816207841</v>
+      </c>
+      <c r="F74">
+        <v>0.01388427759924826</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1283290949533613</v>
+        <v>0.1207606476013516</v>
       </c>
       <c r="C75">
-        <v>0.03589701901811347</v>
+        <v>-0.03210093829509544</v>
       </c>
       <c r="D75">
-        <v>0.03483617481529347</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03682787705529447</v>
+      </c>
+      <c r="E75">
+        <v>0.06400616173708452</v>
+      </c>
+      <c r="F75">
+        <v>0.06026028561660837</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.07590381902006928</v>
+        <v>0.0903365893417975</v>
       </c>
       <c r="C77">
-        <v>0.01466624747287391</v>
+        <v>-0.01158350251285981</v>
       </c>
       <c r="D77">
-        <v>0.120427449920253</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.120865627064804</v>
+      </c>
+      <c r="E77">
+        <v>0.05213246171180364</v>
+      </c>
+      <c r="F77">
+        <v>-0.02043882850749992</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.09907342220884294</v>
+        <v>0.1010793453780924</v>
       </c>
       <c r="C78">
-        <v>0.04477161494392906</v>
+        <v>-0.04149961073760308</v>
       </c>
       <c r="D78">
-        <v>0.1560487350300465</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1458017080925808</v>
+      </c>
+      <c r="E78">
+        <v>0.05635623672444915</v>
+      </c>
+      <c r="F78">
+        <v>-0.03593195134612959</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1685672259046715</v>
+        <v>0.1640652493507261</v>
       </c>
       <c r="C79">
-        <v>0.03403316117081055</v>
+        <v>-0.03006755032736442</v>
       </c>
       <c r="D79">
-        <v>0.02274149096204348</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.02489259729412642</v>
+      </c>
+      <c r="E79">
+        <v>0.04017949872249944</v>
+      </c>
+      <c r="F79">
+        <v>0.03625091148806265</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.07899086502172906</v>
+        <v>0.07695096936662287</v>
       </c>
       <c r="C80">
-        <v>0.004740626925650619</v>
+        <v>-0.002052093119691314</v>
       </c>
       <c r="D80">
-        <v>0.05125506248008463</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.05289523218241267</v>
+      </c>
+      <c r="E80">
+        <v>-0.0195797620780938</v>
+      </c>
+      <c r="F80">
+        <v>0.05114008813774579</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1157033868086359</v>
+        <v>0.1098885023577396</v>
       </c>
       <c r="C81">
-        <v>0.03726427664032333</v>
+        <v>-0.03511022471366949</v>
       </c>
       <c r="D81">
-        <v>0.007125323317019523</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01222258769229669</v>
+      </c>
+      <c r="E81">
+        <v>0.05185870558917226</v>
+      </c>
+      <c r="F81">
+        <v>0.06166049537134253</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1621716489290669</v>
+        <v>0.1598360786600179</v>
       </c>
       <c r="C82">
-        <v>0.03417944972834756</v>
+        <v>-0.0306185117210309</v>
       </c>
       <c r="D82">
-        <v>0.0004651039301923968</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.001307997749763324</v>
+      </c>
+      <c r="E82">
+        <v>0.1035081912494411</v>
+      </c>
+      <c r="F82">
+        <v>-1.872852406594155e-05</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.05633958358849122</v>
+        <v>0.05192387936056554</v>
       </c>
       <c r="C83">
-        <v>0.0065434415603305</v>
+        <v>-0.004194670674917947</v>
       </c>
       <c r="D83">
-        <v>0.05039221217499185</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.04776991915457141</v>
+      </c>
+      <c r="E83">
+        <v>-0.02415810348677676</v>
+      </c>
+      <c r="F83">
+        <v>0.009023886529022291</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.0540864385185469</v>
+        <v>0.05107307286898404</v>
       </c>
       <c r="C84">
-        <v>0.01374791403856848</v>
+        <v>-0.01123017245173836</v>
       </c>
       <c r="D84">
-        <v>0.07582438964525672</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.07479067095062732</v>
+      </c>
+      <c r="E84">
+        <v>0.006387130130781776</v>
+      </c>
+      <c r="F84">
+        <v>0.00440975797624544</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1393540455969216</v>
+        <v>0.1339258906585311</v>
       </c>
       <c r="C85">
-        <v>0.0370987404177897</v>
+        <v>-0.03390539600769623</v>
       </c>
       <c r="D85">
-        <v>0.0150952982718665</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01698130077995827</v>
+      </c>
+      <c r="E85">
+        <v>0.08236218677759427</v>
+      </c>
+      <c r="F85">
+        <v>0.0144316467228671</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.0829862182428346</v>
+        <v>0.08164159185049627</v>
       </c>
       <c r="C86">
-        <v>-0.003286825940099343</v>
+        <v>0.006631669602596989</v>
       </c>
       <c r="D86">
-        <v>0.05304102947188435</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.07548732220152986</v>
+      </c>
+      <c r="E86">
+        <v>-0.5507332005338249</v>
+      </c>
+      <c r="F86">
+        <v>0.5982662765873658</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.0880561731953539</v>
+        <v>0.08889748366455938</v>
       </c>
       <c r="C87">
-        <v>0.02859325530955193</v>
+        <v>-0.0240762782985543</v>
       </c>
       <c r="D87">
-        <v>0.08239540362942335</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.0839530409118321</v>
+      </c>
+      <c r="E87">
+        <v>0.00151349371889724</v>
+      </c>
+      <c r="F87">
+        <v>-0.1092484286872602</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06317918038443289</v>
+        <v>0.06190040552407922</v>
       </c>
       <c r="C88">
-        <v>0.00760773146580561</v>
+        <v>-0.005044518604835191</v>
       </c>
       <c r="D88">
-        <v>0.06713584735737918</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.06337894924448433</v>
+      </c>
+      <c r="E88">
+        <v>0.01521967721679682</v>
+      </c>
+      <c r="F88">
+        <v>0.01031290376780181</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.132750604237968</v>
+        <v>0.1370675449184889</v>
       </c>
       <c r="C89">
-        <v>0.01745467898668951</v>
+        <v>-0.02127686519727831</v>
       </c>
       <c r="D89">
-        <v>-0.2299849551050266</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.2342137329255155</v>
+      </c>
+      <c r="E89">
+        <v>-0.04427198666974147</v>
+      </c>
+      <c r="F89">
+        <v>-0.08027306844712806</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1575426739562113</v>
+        <v>0.1667885503304721</v>
       </c>
       <c r="C90">
-        <v>0.04062350061078093</v>
+        <v>-0.04456461433734098</v>
       </c>
       <c r="D90">
-        <v>-0.257128583519849</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.259119993308124</v>
+      </c>
+      <c r="E90">
+        <v>-0.07298557564238435</v>
+      </c>
+      <c r="F90">
+        <v>-0.113431657479412</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1265782391973977</v>
+        <v>0.1212769772532317</v>
       </c>
       <c r="C91">
-        <v>0.02797272113316611</v>
+        <v>-0.02574260766848336</v>
       </c>
       <c r="D91">
-        <v>-0.01091771043804438</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.008097106890545405</v>
+      </c>
+      <c r="E91">
+        <v>0.04084868734553217</v>
+      </c>
+      <c r="F91">
+        <v>0.0918940514022477</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.155219919607781</v>
+        <v>0.1578499289050067</v>
       </c>
       <c r="C92">
-        <v>0.03091376453090176</v>
+        <v>-0.03457552141716709</v>
       </c>
       <c r="D92">
-        <v>-0.2879782715097262</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.291865721233398</v>
+      </c>
+      <c r="E92">
+        <v>-0.05603670351622662</v>
+      </c>
+      <c r="F92">
+        <v>-0.07031975334693633</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.161942218194001</v>
+        <v>0.1698417902585874</v>
       </c>
       <c r="C93">
-        <v>0.03664975522197529</v>
+        <v>-0.03941657382852461</v>
       </c>
       <c r="D93">
-        <v>-0.2469459028534226</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2501972426978153</v>
+      </c>
+      <c r="E93">
+        <v>-0.02939304797781038</v>
+      </c>
+      <c r="F93">
+        <v>-0.05595540332711876</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1261649277095937</v>
+        <v>0.1192145841954657</v>
       </c>
       <c r="C94">
-        <v>0.03122119919894594</v>
+        <v>-0.02721502042632859</v>
       </c>
       <c r="D94">
-        <v>0.05012750682457082</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.05114754688300924</v>
+      </c>
+      <c r="E94">
+        <v>0.06335579236745725</v>
+      </c>
+      <c r="F94">
+        <v>0.05923043030046916</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1258051116901359</v>
+        <v>0.1285094638701055</v>
       </c>
       <c r="C95">
-        <v>0.01383710636401945</v>
+        <v>-0.008451973787707023</v>
       </c>
       <c r="D95">
-        <v>0.1098988926961328</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.11714574017913</v>
+      </c>
+      <c r="E95">
+        <v>0.01226837608637083</v>
+      </c>
+      <c r="F95">
+        <v>0.03651754777387885</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1719924578627025</v>
+        <v>0.1529080427297268</v>
       </c>
       <c r="C96">
-        <v>-0.9794342759746727</v>
+        <v>0.9817116851810819</v>
       </c>
       <c r="D96">
-        <v>-0.03001416300429609</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.05032921593329074</v>
+      </c>
+      <c r="E96">
+        <v>0.06444723498277631</v>
+      </c>
+      <c r="F96">
+        <v>0.01045798606962299</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1932676269760609</v>
+        <v>0.1954352127322582</v>
       </c>
       <c r="C97">
-        <v>0.006620338558162138</v>
+        <v>-0.001740027296249041</v>
       </c>
       <c r="D97">
-        <v>-0.01876242123642867</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.01665560550318856</v>
+      </c>
+      <c r="E97">
+        <v>-0.1325888618009707</v>
+      </c>
+      <c r="F97">
+        <v>0.109736150202851</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.189510002573476</v>
+        <v>0.1975781939141283</v>
       </c>
       <c r="C98">
-        <v>0.01832660199619817</v>
+        <v>-0.01302430142669301</v>
       </c>
       <c r="D98">
-        <v>0.0008542960793803572</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.004612479009961696</v>
+      </c>
+      <c r="E98">
+        <v>-0.1276410874318734</v>
+      </c>
+      <c r="F98">
+        <v>-0.05932681008218984</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05580524059180102</v>
+        <v>0.05583758275412353</v>
       </c>
       <c r="C99">
-        <v>-0.0006226735807698385</v>
+        <v>0.002680492906306782</v>
       </c>
       <c r="D99">
-        <v>0.05466631212116296</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.05609405806452304</v>
+      </c>
+      <c r="E99">
+        <v>0.003877818345047271</v>
+      </c>
+      <c r="F99">
+        <v>0.00574053188527741</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.117937446488139</v>
+        <v>0.1114816232410794</v>
       </c>
       <c r="C100">
-        <v>-0.03341365880733147</v>
+        <v>0.04044257492533025</v>
       </c>
       <c r="D100">
-        <v>0.3062161233706536</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.2897894588377561</v>
+      </c>
+      <c r="E100">
+        <v>-0.577024080584626</v>
+      </c>
+      <c r="F100">
+        <v>-0.6629067259507083</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02624828580303215</v>
+        <v>0.02811565429807179</v>
       </c>
       <c r="C101">
-        <v>0.01007669428614084</v>
+        <v>-0.00951987700697327</v>
       </c>
       <c r="D101">
-        <v>0.03881606538727785</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03854271381799874</v>
+      </c>
+      <c r="E101">
+        <v>-0.008077573721219417</v>
+      </c>
+      <c r="F101">
+        <v>0.02397167234517419</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
